--- a/notebooks/SMARCB1/input/SMARCB1_CSS3_individuals.xlsx
+++ b/notebooks/SMARCB1/input/SMARCB1_CSS3_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SMARCB1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3EB934-78EC-E04E-9CE8-0319510E7078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A14B5-85F8-8A47-A37D-2F5FD5303F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="8820" windowWidth="33140" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="5060" windowWidth="33140" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="312">
   <si>
     <t>PMID</t>
   </si>
@@ -963,6 +963,12 @@
   </si>
   <si>
     <t>NP_003064.2:p.(Lys364del)</t>
+  </si>
+  <si>
+    <t>Neoplasm</t>
+  </si>
+  <si>
+    <t>HP:0002664</t>
   </si>
 </sst>
 </file>
@@ -1358,19 +1364,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS20"/>
+  <dimension ref="A1:DT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="105" max="105" width="12.1640625" customWidth="1"/>
+    <col min="106" max="106" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:124" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1423,325 +1429,328 @@
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BY1" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CA1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CB1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CC1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CD1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CE1" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CF1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="CY1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="CY1" s="3" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DC1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DD1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DE1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DF1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DG1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DH1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DI1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="DI1" s="3" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="DJ1" s="3" t="s">
+      <c r="DK1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="DK1" s="3" t="s">
+      <c r="DL1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="DL1" s="3" t="s">
+      <c r="DM1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="DM1" s="3" t="s">
+      <c r="DN1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DO1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="DO1" s="3" t="s">
+      <c r="DP1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="DP1" s="3" t="s">
+      <c r="DQ1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="DQ1" s="3" t="s">
+      <c r="DR1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="DR1" s="3" t="s">
+      <c r="DS1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="DS1" s="3" t="s">
+      <c r="DT1" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1794,325 +1803,328 @@
         <v>55</v>
       </c>
       <c r="R2" t="s">
+        <v>311</v>
+      </c>
+      <c r="S2" t="s">
         <v>56</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>57</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>59</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>254</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>61</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>134</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>111</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>128</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>230</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>232</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>256</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>115</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>137</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>258</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>294</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>260</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>296</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>262</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>63</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>60</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>58</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>252</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>154</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>67</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>96</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>238</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>240</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>99</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>101</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>242</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>69</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>70</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>71</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>72</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>298</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>288</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>290</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>74</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>113</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>107</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>75</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>76</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>77</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>78</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>79</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>80</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>181</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>183</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>185</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>187</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>189</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>278</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>292</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>191</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>193</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>195</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>276</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>197</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>280</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>199</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>81</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>82</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>103</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>117</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>119</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>121</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>123</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>126</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>130</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>236</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
         <v>73</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
         <v>132</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CS2" t="s">
         <v>150</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" t="s">
         <v>152</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CU2" t="s">
         <v>139</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CV2" t="s">
         <v>141</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CW2" t="s">
         <v>201</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CX2" t="s">
         <v>203</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CY2" t="s">
         <v>205</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="CZ2" t="s">
         <v>156</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DA2" t="s">
         <v>143</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DB2" t="s">
         <v>219</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DC2" t="s">
         <v>215</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DD2" t="s">
         <v>217</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DE2" t="s">
         <v>145</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DF2" t="s">
         <v>207</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DG2" t="s">
         <v>209</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DH2" t="s">
         <v>211</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DI2" t="s">
         <v>213</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DJ2" t="s">
         <v>222</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DK2" t="s">
         <v>226</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DL2" t="s">
         <v>224</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DM2" t="s">
         <v>228</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DN2" t="s">
         <v>234</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DO2" t="s">
         <v>264</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DP2" t="s">
         <v>266</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DQ2" t="s">
         <v>268</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DR2" t="s">
         <v>270</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DS2" t="s">
         <v>305</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DT2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2161,12 +2173,12 @@
       <c r="Q3" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="W3" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="R3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>97</v>
@@ -2174,54 +2186,54 @@
       <c r="Z3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AE3" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="AD3" s="1"/>
       <c r="AF3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AG3" s="1"/>
+      <c r="AG3" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
-      <c r="AQ3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AR3" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="AS3" s="1"/>
-      <c r="AT3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY3" t="s">
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW3" t="s">
         <v>97</v>
       </c>
       <c r="AZ3" t="s">
         <v>97</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BA3" t="s">
         <v>97</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BL3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN3" t="s">
         <v>124</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CF3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>104</v>
+      <c r="CG3" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="CI3" s="1" t="s">
         <v>104</v>
@@ -2230,47 +2242,50 @@
         <v>104</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO3" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="CP3" s="1"/>
-      <c r="CQ3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="CS3" s="1"/>
-      <c r="CT3" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="CT3" s="1"/>
       <c r="CU3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="CV3" s="1"/>
+      <c r="CV3" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="CW3" s="1"/>
       <c r="CX3" s="1"/>
-      <c r="CY3" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="CY3" s="1"/>
       <c r="CZ3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DA3" s="1"/>
+      <c r="DA3" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="DB3" s="1"/>
       <c r="DC3" s="1"/>
-      <c r="DD3" s="1" t="s">
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2319,119 +2334,122 @@
       <c r="Q4" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="R4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="1"/>
       <c r="W4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="Y4" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AA4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD4" s="1"/>
       <c r="AF4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AG4" s="1"/>
+      <c r="AG4" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AQ4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AR4" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="AS4" s="1"/>
-      <c r="AT4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY4" t="s">
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW4" t="s">
         <v>97</v>
       </c>
       <c r="AZ4" t="s">
         <v>97</v>
       </c>
-      <c r="BJ4" s="1" t="s">
-        <v>104</v>
+      <c r="BA4" t="s">
+        <v>97</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BN4" s="1" t="s">
+      <c r="BO4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CF4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>104</v>
+      <c r="CG4" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="CI4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CK4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CN4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CO4" s="1"/>
+      <c r="CO4" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="CP4" s="1"/>
-      <c r="CQ4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CR4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="CS4" s="1"/>
-      <c r="CT4" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="CT4" s="1"/>
       <c r="CU4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CV4" s="1"/>
+      <c r="CV4" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="CW4" s="1"/>
       <c r="CX4" s="1"/>
-      <c r="CY4" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="CY4" s="1"/>
       <c r="CZ4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DA4" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="DB4" s="1"/>
       <c r="DC4" s="1"/>
-      <c r="DD4" s="1" t="s">
+      <c r="DD4" s="1"/>
+      <c r="DE4" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2480,59 +2498,59 @@
       <c r="Q5" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="R5" t="s">
         <v>104</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AE5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AF5" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
-      <c r="AQ5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY5" t="s">
+      <c r="AL5" s="1"/>
+      <c r="AR5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW5" t="s">
         <v>97</v>
       </c>
       <c r="AZ5" t="s">
         <v>97</v>
       </c>
-      <c r="BJ5" s="1" t="s">
-        <v>104</v>
+      <c r="BA5" t="s">
+        <v>97</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="BN5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CF5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>104</v>
+      <c r="BO5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="CI5" s="1" t="s">
         <v>104</v>
@@ -2541,48 +2559,51 @@
         <v>104</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CM5" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CN5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CO5" s="1"/>
+      <c r="CO5" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="CP5" s="1"/>
-      <c r="CQ5" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="CQ5" s="1"/>
       <c r="CR5" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CS5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CU5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CV5" s="1"/>
+      <c r="CT5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV5" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="CW5" s="1"/>
       <c r="CX5" s="1"/>
-      <c r="CY5" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="CY5" s="1"/>
       <c r="CZ5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DA5" s="1"/>
+      <c r="DA5" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="DB5" s="1"/>
       <c r="DC5" s="1"/>
-      <c r="DD5" s="1" t="s">
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2631,66 +2652,66 @@
       <c r="Q6" t="s">
         <v>55</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>97</v>
+      <c r="R6" t="s">
+        <v>104</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AE6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AF6" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
-      <c r="AS6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY6" t="s">
+      <c r="AL6" s="1"/>
+      <c r="AT6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW6" t="s">
         <v>97</v>
       </c>
       <c r="AZ6" t="s">
         <v>97</v>
       </c>
-      <c r="BJ6" s="1" t="s">
+      <c r="BA6" t="s">
         <v>97</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BM6" s="1" t="s">
+      <c r="BL6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BN6" s="1" t="s">
+      <c r="BO6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CF6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH6" s="1" t="s">
+      <c r="CG6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="CI6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>97</v>
@@ -2698,26 +2719,29 @@
       <c r="CM6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CU6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV6" s="1"/>
+      <c r="CN6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV6" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="CW6" s="1"/>
       <c r="CX6" s="1"/>
-      <c r="CY6" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="CY6" s="1"/>
       <c r="CZ6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA6" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="DA6" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="DB6" s="1"/>
       <c r="DC6" s="1"/>
-      <c r="DD6" s="1" t="s">
+      <c r="DD6" s="1"/>
+      <c r="DE6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -2766,25 +2790,25 @@
       <c r="Q7" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" t="s">
-        <v>97</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM7" t="s">
+      <c r="R7" t="s">
+        <v>104</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7" t="s">
+        <v>97</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL7" t="s">
         <v>97</v>
       </c>
       <c r="AN7" t="s">
@@ -2793,37 +2817,37 @@
       <c r="AO7" t="s">
         <v>97</v>
       </c>
-      <c r="AR7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU7" t="s">
+      <c r="AP7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU7" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AV7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AW7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AX7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB7" t="s">
         <v>104</v>
       </c>
       <c r="BE7" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ7" t="s">
         <v>97</v>
       </c>
       <c r="BN7" t="s">
@@ -2832,14 +2856,14 @@
       <c r="BO7" t="s">
         <v>97</v>
       </c>
-      <c r="BQ7" t="s">
-        <v>104</v>
+      <c r="BP7" t="s">
+        <v>97</v>
       </c>
       <c r="BR7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BS7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BT7" t="s">
         <v>104</v>
@@ -2850,26 +2874,26 @@
       <c r="BV7" t="s">
         <v>104</v>
       </c>
-      <c r="BY7" t="s">
-        <v>97</v>
+      <c r="BW7" t="s">
+        <v>104</v>
       </c>
       <c r="BZ7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CA7" t="s">
         <v>104</v>
       </c>
-      <c r="CC7" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>104</v>
+      <c r="CB7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>97</v>
       </c>
       <c r="CF7" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU7" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>97</v>
       </c>
       <c r="CV7" t="s">
         <v>104</v>
@@ -2880,7 +2904,7 @@
       <c r="CX7" t="s">
         <v>104</v>
       </c>
-      <c r="DA7" t="s">
+      <c r="CY7" t="s">
         <v>104</v>
       </c>
       <c r="DB7" t="s">
@@ -2902,13 +2926,13 @@
         <v>104</v>
       </c>
       <c r="DH7" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="DI7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="DJ7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DK7" t="s">
         <v>104</v>
@@ -2917,13 +2941,13 @@
         <v>104</v>
       </c>
       <c r="DM7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DN7" t="s">
         <v>97</v>
       </c>
       <c r="DO7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DP7" t="s">
         <v>104</v>
@@ -2931,8 +2955,11 @@
       <c r="DQ7" t="s">
         <v>104</v>
       </c>
+      <c r="DR7" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -2981,35 +3008,35 @@
       <c r="Q8" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" t="s">
-        <v>104</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="R8" t="s">
+        <v>104</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V8" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" t="s">
         <v>97</v>
       </c>
       <c r="AB8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AC8" t="s">
         <v>104</v>
       </c>
-      <c r="AG8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>97</v>
+      <c r="AD8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>104</v>
       </c>
       <c r="AN8" t="s">
         <v>97</v>
@@ -3017,101 +3044,101 @@
       <c r="AO8" t="s">
         <v>97</v>
       </c>
-      <c r="AR8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU8" t="s">
+      <c r="AP8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU8" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AV8" t="s">
         <v>97</v>
       </c>
       <c r="AW8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX8" t="s">
         <v>104</v>
       </c>
-      <c r="BA8" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD8" t="s">
+      <c r="AY8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB8" t="s">
         <v>97</v>
       </c>
       <c r="BE8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ8" t="s">
         <v>97</v>
       </c>
       <c r="BN8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BO8" t="s">
-        <v>55</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>55</v>
       </c>
       <c r="BR8" t="s">
         <v>104</v>
       </c>
       <c r="BS8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BT8" t="s">
         <v>97</v>
       </c>
       <c r="BU8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BV8" t="s">
         <v>104</v>
       </c>
-      <c r="BY8" t="s">
-        <v>97</v>
+      <c r="BW8" t="s">
+        <v>104</v>
       </c>
       <c r="BZ8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CA8" t="s">
         <v>104</v>
       </c>
-      <c r="CC8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CE8" t="s">
+      <c r="CB8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD8" t="s">
         <v>104</v>
       </c>
       <c r="CF8" t="s">
-        <v>97</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>97</v>
       </c>
       <c r="CP8" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU8" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>97</v>
       </c>
       <c r="CV8" t="s">
         <v>104</v>
       </c>
       <c r="CW8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CX8" t="s">
         <v>97</v>
       </c>
-      <c r="DA8" t="s">
-        <v>104</v>
+      <c r="CY8" t="s">
+        <v>97</v>
       </c>
       <c r="DB8" t="s">
         <v>104</v>
@@ -3123,16 +3150,16 @@
         <v>104</v>
       </c>
       <c r="DE8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DF8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DG8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DH8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DI8" t="s">
         <v>104</v>
@@ -3147,7 +3174,7 @@
         <v>104</v>
       </c>
       <c r="DM8" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="DN8" t="s">
         <v>55</v>
@@ -3161,8 +3188,11 @@
       <c r="DQ8" t="s">
         <v>55</v>
       </c>
+      <c r="DR8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -3211,34 +3241,34 @@
       <c r="Q9" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9" t="s">
-        <v>97</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="R9" t="s">
+        <v>104</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" t="s">
+        <v>97</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z9" t="s">
         <v>104</v>
       </c>
       <c r="AB9" t="s">
         <v>104</v>
       </c>
       <c r="AC9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL9" t="s">
         <v>97</v>
       </c>
       <c r="AN9" t="s">
@@ -3247,45 +3277,45 @@
       <c r="AO9" t="s">
         <v>97</v>
       </c>
-      <c r="AR9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT9" s="4"/>
-      <c r="AU9" t="s">
-        <v>97</v>
-      </c>
+      <c r="AP9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU9" s="4"/>
       <c r="AV9" t="s">
         <v>97</v>
       </c>
       <c r="AW9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX9" t="s">
         <v>104</v>
       </c>
-      <c r="BA9" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD9" t="s">
+      <c r="AY9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB9" t="s">
         <v>97</v>
       </c>
       <c r="BE9" t="s">
         <v>97</v>
       </c>
-      <c r="BI9" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM9" t="s">
+      <c r="BF9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ9" t="s">
         <v>97</v>
       </c>
       <c r="BN9" t="s">
         <v>97</v>
       </c>
       <c r="BO9" t="s">
-        <v>55</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>55</v>
       </c>
       <c r="BR9" t="s">
         <v>104</v>
@@ -3294,43 +3324,43 @@
         <v>104</v>
       </c>
       <c r="BT9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BU9" t="s">
         <v>97</v>
       </c>
       <c r="BV9" t="s">
-        <v>104</v>
-      </c>
-      <c r="BY9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW9" t="s">
         <v>104</v>
       </c>
       <c r="BZ9" t="s">
         <v>104</v>
       </c>
       <c r="CA9" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>55</v>
-      </c>
-      <c r="CE9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>97</v>
-      </c>
-      <c r="CO9" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>55</v>
+      </c>
+      <c r="CF9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>97</v>
       </c>
       <c r="CP9" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ9" t="s">
         <v>97</v>
       </c>
       <c r="CV9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CW9" t="s">
         <v>104</v>
@@ -3338,7 +3368,7 @@
       <c r="CX9" t="s">
         <v>104</v>
       </c>
-      <c r="DA9" t="s">
+      <c r="CY9" t="s">
         <v>104</v>
       </c>
       <c r="DB9" t="s">
@@ -3360,10 +3390,10 @@
         <v>104</v>
       </c>
       <c r="DH9" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="DI9" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="DJ9" t="s">
         <v>104</v>
@@ -3375,10 +3405,10 @@
         <v>104</v>
       </c>
       <c r="DM9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DN9" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="DO9" t="s">
         <v>55</v>
@@ -3389,8 +3419,11 @@
       <c r="DQ9" t="s">
         <v>55</v>
       </c>
+      <c r="DR9" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -3439,35 +3472,35 @@
       <c r="Q10" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10" t="s">
-        <v>97</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="R10" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10" t="s">
+        <v>97</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z10" t="s">
         <v>104</v>
       </c>
       <c r="AB10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AC10" t="s">
         <v>97</v>
       </c>
-      <c r="AG10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>97</v>
+      <c r="AD10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>104</v>
       </c>
       <c r="AN10" t="s">
         <v>97</v>
@@ -3475,35 +3508,35 @@
       <c r="AO10" t="s">
         <v>97</v>
       </c>
-      <c r="AR10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT10" s="4"/>
-      <c r="AU10" t="s">
-        <v>97</v>
-      </c>
+      <c r="AP10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU10" s="4"/>
       <c r="AV10" t="s">
         <v>97</v>
       </c>
       <c r="AW10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX10" t="s">
         <v>104</v>
       </c>
-      <c r="BA10" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>97</v>
+      <c r="AY10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>104</v>
       </c>
       <c r="BE10" t="s">
         <v>97</v>
       </c>
-      <c r="BI10" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM10" t="s">
+      <c r="BF10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ10" t="s">
         <v>97</v>
       </c>
       <c r="BN10" t="s">
@@ -3512,61 +3545,61 @@
       <c r="BO10" t="s">
         <v>97</v>
       </c>
-      <c r="BQ10" t="s">
-        <v>104</v>
+      <c r="BP10" t="s">
+        <v>97</v>
       </c>
       <c r="BR10" t="s">
         <v>104</v>
       </c>
       <c r="BS10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BT10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BU10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BV10" t="s">
-        <v>104</v>
-      </c>
-      <c r="BY10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW10" t="s">
         <v>104</v>
       </c>
       <c r="BZ10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CA10" t="s">
         <v>97</v>
       </c>
-      <c r="CC10" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>104</v>
+      <c r="CB10" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>97</v>
       </c>
       <c r="CF10" t="s">
-        <v>97</v>
-      </c>
-      <c r="CO10" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>97</v>
       </c>
       <c r="CP10" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU10" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>97</v>
       </c>
       <c r="CV10" t="s">
         <v>104</v>
       </c>
       <c r="CW10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CX10" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA10" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY10" t="s">
         <v>104</v>
       </c>
       <c r="DB10" t="s">
@@ -3579,16 +3612,16 @@
         <v>104</v>
       </c>
       <c r="DE10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DF10" t="s">
         <v>97</v>
       </c>
       <c r="DG10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DH10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DI10" t="s">
         <v>97</v>
@@ -3600,25 +3633,28 @@
         <v>97</v>
       </c>
       <c r="DL10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DM10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DN10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DO10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DP10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DQ10" t="s">
         <v>104</v>
       </c>
+      <c r="DR10" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -3667,26 +3703,26 @@
       <c r="Q11" t="s">
         <v>55</v>
       </c>
-      <c r="T11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" t="s">
-        <v>97</v>
-      </c>
-      <c r="V11" s="4"/>
-      <c r="AC11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="R11" t="s">
+        <v>104</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V11" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="AD11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL11" t="s">
         <v>97</v>
       </c>
       <c r="AN11" t="s">
@@ -3695,37 +3731,37 @@
       <c r="AO11" t="s">
         <v>97</v>
       </c>
-      <c r="AR11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU11" t="s">
+      <c r="AP11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU11" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AV11" t="s">
         <v>97</v>
       </c>
       <c r="AW11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX11" t="s">
         <v>104</v>
       </c>
-      <c r="BA11" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD11" t="s">
+      <c r="AY11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB11" t="s">
         <v>97</v>
       </c>
       <c r="BE11" t="s">
         <v>97</v>
       </c>
-      <c r="BI11" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM11" t="s">
+      <c r="BF11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ11" t="s">
         <v>97</v>
       </c>
       <c r="BN11" t="s">
@@ -3734,50 +3770,50 @@
       <c r="BO11" t="s">
         <v>97</v>
       </c>
-      <c r="BQ11" t="s">
-        <v>104</v>
+      <c r="BP11" t="s">
+        <v>97</v>
       </c>
       <c r="BR11" t="s">
         <v>104</v>
       </c>
       <c r="BS11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BT11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BU11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BV11" t="s">
-        <v>104</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>97</v>
+        <v>97</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>104</v>
       </c>
       <c r="BZ11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CA11" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>104</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>104</v>
       </c>
       <c r="CF11" t="s">
         <v>97</v>
       </c>
-      <c r="CO11" t="s">
-        <v>55</v>
+      <c r="CG11" t="s">
+        <v>97</v>
       </c>
       <c r="CP11" t="s">
         <v>55</v>
       </c>
-      <c r="CU11" t="s">
-        <v>104</v>
+      <c r="CQ11" t="s">
+        <v>55</v>
       </c>
       <c r="CV11" t="s">
         <v>104</v>
@@ -3788,8 +3824,8 @@
       <c r="CX11" t="s">
         <v>104</v>
       </c>
-      <c r="DA11" t="s">
-        <v>55</v>
+      <c r="CY11" t="s">
+        <v>104</v>
       </c>
       <c r="DB11" t="s">
         <v>55</v>
@@ -3801,19 +3837,19 @@
         <v>55</v>
       </c>
       <c r="DE11" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="DF11" t="s">
         <v>104</v>
       </c>
       <c r="DG11" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="DH11" t="s">
         <v>55</v>
       </c>
       <c r="DI11" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="DJ11" t="s">
         <v>104</v>
@@ -3824,11 +3860,11 @@
       <c r="DL11" t="s">
         <v>104</v>
       </c>
-      <c r="DN11" t="s">
+      <c r="DM11" t="s">
         <v>104</v>
       </c>
       <c r="DO11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DP11" t="s">
         <v>97</v>
@@ -3836,8 +3872,11 @@
       <c r="DQ11" t="s">
         <v>97</v>
       </c>
+      <c r="DR11" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -3886,29 +3925,29 @@
       <c r="Q12" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U12" t="s">
-        <v>97</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>97</v>
+      <c r="R12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V12" t="s">
+        <v>97</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>104</v>
       </c>
       <c r="AN12" t="s">
         <v>97</v>
@@ -3916,37 +3955,37 @@
       <c r="AO12" t="s">
         <v>97</v>
       </c>
-      <c r="AR12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU12" t="s">
+      <c r="AP12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU12" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AV12" t="s">
         <v>97</v>
       </c>
       <c r="AW12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX12" t="s">
         <v>104</v>
       </c>
-      <c r="BA12" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD12" t="s">
+      <c r="AY12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB12" t="s">
         <v>97</v>
       </c>
       <c r="BE12" t="s">
         <v>97</v>
       </c>
-      <c r="BI12" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM12" t="s">
+      <c r="BF12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ12" t="s">
         <v>97</v>
       </c>
       <c r="BN12" t="s">
@@ -3955,50 +3994,50 @@
       <c r="BO12" t="s">
         <v>97</v>
       </c>
-      <c r="BQ12" t="s">
-        <v>104</v>
+      <c r="BP12" t="s">
+        <v>97</v>
       </c>
       <c r="BR12" t="s">
         <v>104</v>
       </c>
       <c r="BS12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BT12" t="s">
         <v>97</v>
       </c>
       <c r="BU12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BV12" t="s">
         <v>104</v>
       </c>
-      <c r="BY12" t="s">
-        <v>97</v>
+      <c r="BW12" t="s">
+        <v>104</v>
       </c>
       <c r="BZ12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CA12" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>97</v>
       </c>
       <c r="CF12" t="s">
-        <v>97</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>97</v>
       </c>
       <c r="CP12" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU12" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>97</v>
       </c>
       <c r="CV12" t="s">
         <v>104</v>
@@ -4009,7 +4048,7 @@
       <c r="CX12" t="s">
         <v>104</v>
       </c>
-      <c r="DA12" t="s">
+      <c r="CY12" t="s">
         <v>104</v>
       </c>
       <c r="DB12" t="s">
@@ -4025,31 +4064,31 @@
         <v>104</v>
       </c>
       <c r="DF12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DG12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DH12" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="DI12" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="DJ12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DK12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DL12" t="s">
         <v>104</v>
       </c>
       <c r="DM12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DN12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DO12" t="s">
         <v>104</v>
@@ -4060,8 +4099,11 @@
       <c r="DQ12" t="s">
         <v>104</v>
       </c>
+      <c r="DR12" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="13" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4110,29 +4152,29 @@
       <c r="Q13" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U13" t="s">
-        <v>97</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>97</v>
+      <c r="R13" t="s">
+        <v>104</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V13" t="s">
+        <v>97</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>104</v>
       </c>
       <c r="AN13" t="s">
         <v>97</v>
@@ -4140,89 +4182,89 @@
       <c r="AO13" t="s">
         <v>97</v>
       </c>
-      <c r="AR13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>97</v>
+      <c r="AP13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU13" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="AV13" t="s">
         <v>97</v>
       </c>
       <c r="AW13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX13" t="s">
         <v>104</v>
       </c>
-      <c r="BA13" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>104</v>
+      <c r="AY13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>97</v>
       </c>
       <c r="BE13" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ13" t="s">
         <v>97</v>
       </c>
       <c r="BN13" t="s">
         <v>97</v>
       </c>
       <c r="BO13" t="s">
-        <v>104</v>
-      </c>
-      <c r="BQ13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP13" t="s">
         <v>104</v>
       </c>
       <c r="BR13" t="s">
         <v>104</v>
       </c>
       <c r="BS13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BT13" t="s">
         <v>97</v>
       </c>
       <c r="BU13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BV13" t="s">
         <v>104</v>
       </c>
-      <c r="BY13" t="s">
-        <v>97</v>
+      <c r="BW13" t="s">
+        <v>104</v>
       </c>
       <c r="BZ13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CA13" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC13" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>97</v>
       </c>
       <c r="CF13" t="s">
-        <v>97</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>97</v>
       </c>
       <c r="CP13" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU13" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>97</v>
       </c>
       <c r="CV13" t="s">
         <v>104</v>
@@ -4233,7 +4275,7 @@
       <c r="CX13" t="s">
         <v>104</v>
       </c>
-      <c r="DA13" t="s">
+      <c r="CY13" t="s">
         <v>104</v>
       </c>
       <c r="DB13" t="s">
@@ -4246,10 +4288,10 @@
         <v>104</v>
       </c>
       <c r="DE13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DF13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DG13" t="s">
         <v>104</v>
@@ -4261,19 +4303,19 @@
         <v>104</v>
       </c>
       <c r="DJ13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DK13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DL13" t="s">
         <v>104</v>
       </c>
       <c r="DM13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DN13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DO13" t="s">
         <v>104</v>
@@ -4284,8 +4326,11 @@
       <c r="DQ13" t="s">
         <v>104</v>
       </c>
+      <c r="DR13" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -4334,61 +4379,61 @@
       <c r="Q14" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>104</v>
+      <c r="R14" t="s">
+        <v>104</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V14" t="s">
+        <v>97</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>97</v>
       </c>
       <c r="AN14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AO14" t="s">
         <v>97</v>
       </c>
-      <c r="AT14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>97</v>
+      <c r="AP14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU14" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="AV14" t="s">
         <v>97</v>
       </c>
       <c r="AW14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX14" t="s">
         <v>104</v>
       </c>
-      <c r="BA14" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD14" t="s">
+      <c r="AY14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB14" t="s">
         <v>97</v>
       </c>
       <c r="BE14" t="s">
         <v>97</v>
       </c>
-      <c r="BI14" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM14" t="s">
+      <c r="BF14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>97</v>
       </c>
       <c r="BN14" t="s">
@@ -4397,8 +4442,8 @@
       <c r="BO14" t="s">
         <v>97</v>
       </c>
-      <c r="BQ14" t="s">
-        <v>104</v>
+      <c r="BP14" t="s">
+        <v>97</v>
       </c>
       <c r="BR14" t="s">
         <v>104</v>
@@ -4410,37 +4455,37 @@
         <v>104</v>
       </c>
       <c r="BU14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BV14" t="s">
         <v>97</v>
       </c>
-      <c r="BY14" t="s">
+      <c r="BW14" t="s">
         <v>97</v>
       </c>
       <c r="BZ14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CA14" t="s">
         <v>104</v>
       </c>
-      <c r="CC14" t="s">
-        <v>104</v>
-      </c>
-      <c r="CE14" t="s">
+      <c r="CB14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD14" t="s">
         <v>104</v>
       </c>
       <c r="CF14" t="s">
-        <v>97</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>97</v>
       </c>
       <c r="CP14" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU14" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>97</v>
       </c>
       <c r="CV14" t="s">
         <v>104</v>
@@ -4451,8 +4496,8 @@
       <c r="CX14" t="s">
         <v>104</v>
       </c>
-      <c r="DA14" t="s">
-        <v>97</v>
+      <c r="CY14" t="s">
+        <v>104</v>
       </c>
       <c r="DB14" t="s">
         <v>97</v>
@@ -4464,34 +4509,34 @@
         <v>97</v>
       </c>
       <c r="DE14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DF14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DG14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DH14" t="s">
         <v>104</v>
       </c>
       <c r="DI14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DJ14" t="s">
         <v>97</v>
       </c>
       <c r="DK14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DL14" t="s">
         <v>104</v>
       </c>
       <c r="DM14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DN14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DO14" t="s">
         <v>104</v>
@@ -4502,8 +4547,11 @@
       <c r="DQ14" t="s">
         <v>104</v>
       </c>
+      <c r="DR14" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -4552,106 +4600,106 @@
       <c r="Q15" t="s">
         <v>55</v>
       </c>
-      <c r="T15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V15" s="4"/>
-      <c r="AC15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM15" t="s">
+      <c r="R15" t="s">
+        <v>104</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="W15" s="4"/>
+      <c r="AD15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL15" t="s">
         <v>104</v>
       </c>
       <c r="AN15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AO15" t="s">
         <v>97</v>
       </c>
-      <c r="AR15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT15" s="4"/>
-      <c r="AU15" t="s">
-        <v>97</v>
-      </c>
+      <c r="AP15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU15" s="4"/>
       <c r="AV15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AW15" t="s">
         <v>104</v>
       </c>
       <c r="AX15" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ15" t="s">
         <v>97</v>
       </c>
       <c r="BN15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BO15" t="s">
         <v>104</v>
       </c>
-      <c r="BQ15" t="s">
-        <v>97</v>
+      <c r="BP15" t="s">
+        <v>104</v>
       </c>
       <c r="BR15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BS15" t="s">
         <v>104</v>
       </c>
       <c r="BT15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BU15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BV15" t="s">
         <v>104</v>
       </c>
-      <c r="BY15" t="s">
-        <v>97</v>
+      <c r="BW15" t="s">
+        <v>104</v>
       </c>
       <c r="BZ15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CA15" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC15" t="s">
-        <v>104</v>
-      </c>
-      <c r="CE15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD15" t="s">
         <v>104</v>
       </c>
       <c r="CF15" t="s">
-        <v>97</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>97</v>
       </c>
       <c r="CP15" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU15" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>97</v>
       </c>
       <c r="CV15" t="s">
         <v>104</v>
@@ -4662,7 +4710,7 @@
       <c r="CX15" t="s">
         <v>104</v>
       </c>
-      <c r="DA15" t="s">
+      <c r="CY15" t="s">
         <v>104</v>
       </c>
       <c r="DB15" t="s">
@@ -4675,22 +4723,22 @@
         <v>104</v>
       </c>
       <c r="DE15" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="DF15" t="s">
         <v>55</v>
       </c>
       <c r="DG15" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="DH15" t="s">
         <v>104</v>
       </c>
       <c r="DI15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DJ15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DK15" t="s">
         <v>104</v>
@@ -4702,7 +4750,7 @@
         <v>104</v>
       </c>
       <c r="DN15" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="DO15" t="s">
         <v>55</v>
@@ -4713,8 +4761,11 @@
       <c r="DQ15" t="s">
         <v>55</v>
       </c>
+      <c r="DR15" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -4763,19 +4814,19 @@
       <c r="Q16" t="s">
         <v>55</v>
       </c>
-      <c r="T16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM16" t="s">
+      <c r="R16" t="s">
+        <v>104</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH16" t="s">
         <v>97</v>
       </c>
       <c r="AN16" t="s">
@@ -4784,50 +4835,50 @@
       <c r="AO16" t="s">
         <v>97</v>
       </c>
-      <c r="AR16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU16" t="s">
+      <c r="AP16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU16" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AV16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AW16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AX16" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB16" t="s">
         <v>97</v>
       </c>
       <c r="BE16" t="s">
         <v>97</v>
       </c>
-      <c r="BI16" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM16" t="s">
+      <c r="BF16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ16" t="s">
         <v>97</v>
       </c>
       <c r="BN16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BO16" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ16" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP16" t="s">
         <v>97</v>
       </c>
       <c r="BR16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BS16" t="s">
         <v>104</v>
@@ -4841,44 +4892,44 @@
       <c r="BV16" t="s">
         <v>104</v>
       </c>
-      <c r="BY16" t="s">
-        <v>97</v>
+      <c r="BW16" t="s">
+        <v>104</v>
       </c>
       <c r="BZ16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CA16" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>104</v>
-      </c>
-      <c r="CE16" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD16" t="s">
         <v>104</v>
       </c>
       <c r="CF16" t="s">
-        <v>97</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>97</v>
       </c>
       <c r="CP16" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU16" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ16" t="s">
         <v>97</v>
       </c>
       <c r="CV16" t="s">
         <v>97</v>
       </c>
       <c r="CW16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CX16" t="s">
-        <v>97</v>
-      </c>
-      <c r="DA16" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>97</v>
       </c>
       <c r="DB16" t="s">
         <v>104</v>
@@ -4890,19 +4941,19 @@
         <v>104</v>
       </c>
       <c r="DE16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DF16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DG16" t="s">
         <v>104</v>
       </c>
       <c r="DH16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DI16" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="DJ16" t="s">
         <v>55</v>
@@ -4914,22 +4965,25 @@
         <v>55</v>
       </c>
       <c r="DM16" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="DN16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DO16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DP16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DQ16" t="s">
         <v>104</v>
       </c>
+      <c r="DR16" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>157</v>
       </c>
@@ -4978,61 +5032,61 @@
       <c r="Q17" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U17" t="s">
-        <v>97</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>104</v>
+      <c r="R17" t="s">
+        <v>104</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V17" t="s">
+        <v>97</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>97</v>
       </c>
       <c r="AN17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AO17" t="s">
         <v>97</v>
       </c>
-      <c r="AR17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU17" t="s">
+      <c r="AP17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AV17" t="s">
         <v>97</v>
       </c>
       <c r="AW17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX17" t="s">
         <v>104</v>
       </c>
-      <c r="BA17" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD17" t="s">
+      <c r="AY17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB17" t="s">
         <v>97</v>
       </c>
       <c r="BE17" t="s">
         <v>97</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BF17" t="s">
         <v>97</v>
       </c>
       <c r="BN17" t="s">
@@ -5041,17 +5095,17 @@
       <c r="BO17" t="s">
         <v>97</v>
       </c>
-      <c r="BQ17" t="s">
-        <v>104</v>
+      <c r="BP17" t="s">
+        <v>97</v>
       </c>
       <c r="BR17" t="s">
         <v>104</v>
       </c>
       <c r="BS17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BT17" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="BU17" t="s">
         <v>55</v>
@@ -5059,43 +5113,43 @@
       <c r="BV17" t="s">
         <v>55</v>
       </c>
-      <c r="BY17" t="s">
+      <c r="BW17" t="s">
         <v>55</v>
       </c>
       <c r="BZ17" t="s">
         <v>55</v>
       </c>
       <c r="CA17" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC17" t="s">
-        <v>104</v>
-      </c>
-      <c r="CE17" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>104</v>
       </c>
       <c r="CF17" t="s">
         <v>97</v>
       </c>
-      <c r="CO17" t="s">
+      <c r="CG17" t="s">
         <v>97</v>
       </c>
       <c r="CP17" t="s">
         <v>97</v>
       </c>
-      <c r="CU17" t="s">
-        <v>104</v>
+      <c r="CQ17" t="s">
+        <v>97</v>
       </c>
       <c r="CV17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CW17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CX17" t="s">
         <v>104</v>
       </c>
-      <c r="DA17" t="s">
+      <c r="CY17" t="s">
         <v>104</v>
       </c>
       <c r="DB17" t="s">
@@ -5117,10 +5171,10 @@
         <v>104</v>
       </c>
       <c r="DH17" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="DI17" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="DJ17" t="s">
         <v>104</v>
@@ -5129,13 +5183,13 @@
         <v>104</v>
       </c>
       <c r="DL17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DM17" t="s">
         <v>97</v>
       </c>
       <c r="DN17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DO17" t="s">
         <v>104</v>
@@ -5146,8 +5200,11 @@
       <c r="DQ17" t="s">
         <v>104</v>
       </c>
+      <c r="DR17" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>271</v>
       </c>
@@ -5196,19 +5253,19 @@
       <c r="Q18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y18" s="4" t="s">
+      <c r="R18" t="s">
+        <v>104</v>
+      </c>
+      <c r="W18" s="4" t="s">
         <v>97</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM18" s="4" t="s">
+      <c r="AA18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD18" s="4" t="s">
         <v>104</v>
       </c>
       <c r="AN18" s="4" t="s">
@@ -5220,28 +5277,28 @@
       <c r="AP18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AU18" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI18" t="s">
+      <c r="AQ18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF18" t="s">
         <v>104</v>
       </c>
       <c r="BJ18" t="s">
         <v>104</v>
       </c>
       <c r="BK18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BL18" t="s">
-        <v>104</v>
-      </c>
-      <c r="BQ18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM18" t="s">
         <v>104</v>
       </c>
       <c r="BR18" t="s">
@@ -5260,10 +5317,10 @@
         <v>104</v>
       </c>
       <c r="BW18" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>97</v>
       </c>
       <c r="BZ18" t="s">
         <v>104</v>
@@ -5272,30 +5329,30 @@
         <v>104</v>
       </c>
       <c r="CB18" t="s">
-        <v>97</v>
-      </c>
-      <c r="CD18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC18" t="s">
         <v>97</v>
       </c>
       <c r="CE18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CF18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CG18" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>97</v>
-      </c>
-      <c r="CT18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CU18" t="s">
-        <v>104</v>
-      </c>
-      <c r="CV18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV18" t="s">
         <v>104</v>
       </c>
       <c r="CW18" s="4" t="s">
@@ -5310,8 +5367,11 @@
       <c r="CZ18" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="DA18" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>282</v>
       </c>
@@ -5360,44 +5420,44 @@
       <c r="Q19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="V19" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC19" s="4" t="s">
+      <c r="R19" t="s">
+        <v>104</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W19" t="s">
         <v>97</v>
       </c>
       <c r="AD19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AH19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>97</v>
+      <c r="AE19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>55</v>
       </c>
       <c r="AO19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AP19" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU19" t="s">
+      <c r="AP19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU19" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AV19" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="AW19" t="s">
         <v>55</v>
@@ -5406,16 +5466,16 @@
         <v>55</v>
       </c>
       <c r="AY19" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="AZ19" t="s">
         <v>97</v>
       </c>
-      <c r="BB19" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>97</v>
+      <c r="BA19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>104</v>
       </c>
       <c r="BE19" t="s">
         <v>97</v>
@@ -5427,94 +5487,97 @@
         <v>97</v>
       </c>
       <c r="BH19" t="s">
-        <v>104</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>97</v>
+        <v>97</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>104</v>
       </c>
       <c r="BM19" t="s">
         <v>97</v>
       </c>
       <c r="BN19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BO19" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>104</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>104</v>
-      </c>
-      <c r="BX19" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>104</v>
+      </c>
+      <c r="BW19" t="s">
         <v>104</v>
       </c>
       <c r="BY19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BZ19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CA19" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE19" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO19" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF19" t="s">
         <v>104</v>
       </c>
       <c r="CP19" t="s">
-        <v>97</v>
-      </c>
-      <c r="CT19" t="s">
-        <v>104</v>
+        <v>104</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>97</v>
       </c>
       <c r="CU19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CV19" t="s">
         <v>97</v>
       </c>
       <c r="CW19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CX19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CY19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="CZ19" t="s">
         <v>104</v>
       </c>
-      <c r="DE19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="DH19" t="s">
-        <v>97</v>
-      </c>
-      <c r="DM19" t="s">
+      <c r="DA19" t="s">
+        <v>104</v>
+      </c>
+      <c r="DF19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="DI19" t="s">
         <v>97</v>
       </c>
       <c r="DN19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DO19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="DP19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="DQ19" t="s">
         <v>104</v>
       </c>
+      <c r="DR19" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>299</v>
       </c>
@@ -5563,46 +5626,49 @@
       <c r="Q20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="4" t="s">
-        <v>97</v>
+      <c r="R20" t="s">
+        <v>104</v>
       </c>
       <c r="U20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AU20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY20" s="4" t="s">
+      <c r="V20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV20" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AZ20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BE20" s="4" t="s">
+      <c r="BA20" s="4" t="s">
         <v>97</v>
       </c>
       <c r="BF20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BL20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM20" t="s">
+      <c r="BG20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN20" t="s">
         <v>303</v>
       </c>
-      <c r="CF20" t="s">
-        <v>97</v>
-      </c>
-      <c r="CN20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CO20" t="s">
-        <v>97</v>
-      </c>
-      <c r="DR20" t="s">
+      <c r="CG20" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>97</v>
+      </c>
+      <c r="DS20" t="s">
         <v>306</v>
       </c>
-      <c r="DS20" t="s">
+      <c r="DT20" t="s">
         <v>97</v>
       </c>
     </row>
